--- a/compute/result/8.4.1-result.xlsx
+++ b/compute/result/8.4.1-result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\pythonProject\EdgeFed-MARL-MEC\compute\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\pythonProject\EdgeFed-MARL-MEC\compute\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0935948-C416-4257-98D5-A3B1BD4DC5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490D7052-609E-4654-B372-89A5A31E04D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26460" yWindow="2340" windowWidth="21600" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>filenames</t>
   </si>
@@ -56,6 +56,48 @@
   </si>
   <si>
     <t>20211101-204512</t>
+  </si>
+  <si>
+    <t>min_averages</t>
+  </si>
+  <si>
+    <t>max_averages</t>
+  </si>
+  <si>
+    <t>min_ages</t>
+  </si>
+  <si>
+    <t>max_ages</t>
+  </si>
+  <si>
+    <t>20211120-200319</t>
+  </si>
+  <si>
+    <t>20211120-220216</t>
+  </si>
+  <si>
+    <t>20211121-000111</t>
+  </si>
+  <si>
+    <t>20211121-015740</t>
+  </si>
+  <si>
+    <t>20211121-035507</t>
+  </si>
+  <si>
+    <t>20211121-055410</t>
+  </si>
+  <si>
+    <t>20211121-075224</t>
+  </si>
+  <si>
+    <t>20211121-094847</t>
+  </si>
+  <si>
+    <t>20211121-114922</t>
+  </si>
+  <si>
+    <t>20211121-134708</t>
   </si>
 </sst>
 </file>
@@ -74,6 +116,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -426,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A14" sqref="A14:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -438,9 +481,11 @@
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,7 +499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -471,7 +516,7 @@
         <v>-1.2098001103333329</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -488,7 +533,7 @@
         <v>-1.2098001103333329</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -505,7 +550,7 @@
         <v>-1.2098001103333329</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -522,7 +567,7 @@
         <v>-1.2098001103333329</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -539,7 +584,7 @@
         <v>-1.2098001103333329</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -556,7 +601,7 @@
         <v>-1.1817984493333329</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -573,7 +618,7 @@
         <v>-1.1817984493333329</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -588,6 +633,322 @@
       </c>
       <c r="E9">
         <v>-1.1817984493333329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>7.6841064546666678</v>
+      </c>
+      <c r="D15">
+        <v>25.81562777466667</v>
+      </c>
+      <c r="E15">
+        <v>-1.2098000090000001</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>7.8250000000000002</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>38.166666999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>7.6841064546666678</v>
+      </c>
+      <c r="D16">
+        <v>25.81562777466667</v>
+      </c>
+      <c r="E16">
+        <v>-1.2098000090000001</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>7.8250000000000002</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>38.166666999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>7.6841064546666678</v>
+      </c>
+      <c r="D17">
+        <v>25.81562777466667</v>
+      </c>
+      <c r="E17">
+        <v>-1.2098000090000001</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>7.8250000000000002</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>38.166666999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>7.6841064546666678</v>
+      </c>
+      <c r="D18">
+        <v>25.81562777466667</v>
+      </c>
+      <c r="E18">
+        <v>-1.2098000090000001</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>7.8250000000000002</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>38.166666999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>7.6841064546666678</v>
+      </c>
+      <c r="D19">
+        <v>25.81562777466667</v>
+      </c>
+      <c r="E19">
+        <v>-1.2098000090000001</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>7.8250000000000002</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>38.166666999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>7.6904574470000009</v>
+      </c>
+      <c r="D20">
+        <v>25.083011110666661</v>
+      </c>
+      <c r="E20">
+        <v>-1.181798346333333</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>7.85</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>7.6904574470000009</v>
+      </c>
+      <c r="D21">
+        <v>25.083011110666661</v>
+      </c>
+      <c r="E21">
+        <v>-1.181798346333333</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>7.85</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>7.6904574470000009</v>
+      </c>
+      <c r="D22">
+        <v>25.083011110666661</v>
+      </c>
+      <c r="E22">
+        <v>-1.181798346333333</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>7.85</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>7.6904574470000009</v>
+      </c>
+      <c r="D23">
+        <v>25.083011110666661</v>
+      </c>
+      <c r="E23">
+        <v>-1.181798346333333</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>7.85</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>7.6904574470000009</v>
+      </c>
+      <c r="D24">
+        <v>25.083011110666661</v>
+      </c>
+      <c r="E24">
+        <v>-1.181798346333333</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>7.85</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>34.5</v>
       </c>
     </row>
   </sheetData>
